--- a/biology/Botanique/Bûcherons_de_la_Manouane/Bûcherons_de_la_Manouane.xlsx
+++ b/biology/Botanique/Bûcherons_de_la_Manouane/Bûcherons_de_la_Manouane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%BBcherons_de_la_Manouane</t>
+          <t>Bûcherons_de_la_Manouane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bûcherons de la Manouane est un court métrage documentaire québécois réalisé par Arthur Lamothe, sorti en 1962, alors à l'Office national du film du Canada. Il a été présenté au Festival de Tours en décembre 1963.
-Pendant les 27 minutes du film, on y narre le quotidien de bûcherons québécois travaillant dans des conditions extrêmes dans les forêts enneigées de la Haute-Mauricie[1]. Ce film est un précurseur du cinéma vérité québécois des années 1960, qui implique un contact direct entre les documentaristes et leurs sujets, d'où l'attribution d'une importance historique à cette œuvre.
-Le producteur du film retranche une portion du commentaire, sans en compromettre le propos[2].
+Pendant les 27 minutes du film, on y narre le quotidien de bûcherons québécois travaillant dans des conditions extrêmes dans les forêts enneigées de la Haute-Mauricie. Ce film est un précurseur du cinéma vérité québécois des années 1960, qui implique un contact direct entre les documentaristes et leurs sujets, d'où l'attribution d'une importance historique à cette œuvre.
+Le producteur du film retranche une portion du commentaire, sans en compromettre le propos.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%BBcherons_de_la_Manouane</t>
+          <t>Bûcherons_de_la_Manouane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%BBcherons_de_la_Manouane</t>
+          <t>Bûcherons_de_la_Manouane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,6 +555,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
